--- a/output/Total_time_range_data/新疆维吾尔自治区/哈密市_学习考察.xlsx
+++ b/output/Total_time_range_data/新疆维吾尔自治区/哈密市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,190 +436,210 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>297</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>新疆省</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>哈密市</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>外出考察增本领结合实际促发展哈密市召开年基层干部赴政府公开</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.hami.gov.cn/info/5888/336405.htm</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['外出考察增本领 结合实际促发展 哈密市召开2023年基层干部赴疆外学习考察行前动员会-哈密市人民政府', '外出考察增本领 结合实际促发展 哈密市召开2023年基层干部赴疆外学习考察行前动员会', '为认真学习贯彻落实党的二十大精神，充分发挥河南援疆资源优势，努力建设一支对党忠诚、德才兼备、依法办事的高素质基层干部队伍，5月14日上午，哈密市2023年基层干部赴疆外学习考察行前动员会在市委党校召开。', '5月14日上午，哈密市2023年基层干部赴疆外学习考察行前动员会在市委党校召开。融媒体中心记者麦麦提摄', '月14日上午，哈密市2023年基层干部赴疆外学习考察行前动员会在市委党校召开。融媒体中心记者麦麦提摄', '动员会上，市委组织部有关负责同志就此次外出学习考察目的、主题、重点内容、注意事项及任务安排进行了逐一说明。要求参训学员严格要求自己，带着问题学、带着目的学，把此次学习考察当成提升自身党性修养和能力素质的良好契机，力求在思想上有新提高、理论上有新收获，观念上有新转变，工作上有新突破。学员们也纷纷表示，一定会珍惜机会，不负组织期望，学真知、悟真谛，加强磨炼，增长本领，把学习考察的成果转化为能力和动力，运用到今后的工作中去。', '伊州区丽园街道丽园社区党委副书记、居委会主任李婧媛说：“我一定会珍惜机会，不负组织期望，在接下来的考察学习过程中，以饱满的热情投入学习中，补短板、强弱项，静下心去学习，做到多听、多看、多学、多思，努力提高自己的能力，将好的思路、好的方法、好的经验总结归纳，结合社区实际，不断提升服务水平，切实为人民群众办好事、做实事、解难事。”', '二堡镇奥尔达坎尔孜村党总支书记马雁飞说：“作为基层党组织书记，我很高兴可以去河南参观学习，觅取真经，我也将认真学习那里的基层党建和乡村振兴工作的特色和亮点，开眼界、长见识，找差距、补短板，同时我也会结合我们本村的实际，形成我们自己的特色，发展壮大村集体经济，打造二堡镇的新亮点。”', '据了解，此次首期选派乡镇（街道）党政正职、村（社区）党组织书记、村（居）委会主任、妇联主席等共计241人。学习考察分为本地3天行前动员和河南省承办院校15天学习考察两个阶段进行，按照人员类别分班授课，重点围绕党组织建设、乡村振兴、基层治理、产业发展等内容。课程科学合理、内容丰富多样，既有理论内容，又有实地观摩，通过学习考察带动基层干部进一步解放思想、开阔眼界、转变观念、提升素质。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>297</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>新疆省</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>哈密市</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>哈密市宣传文化系统组团赴河南省学习考察新闻动态</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.hami.gov.cn/info/1824/334992.htm</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['2月17日至21日，哈密市委常委、宣传部长吾尔叶提·吾守尔率哈密市宣传文化系统领导干部赴河南省学习考察，持续深化豫哈两地宣传文化领域务实合作，学习借鉴河南宣传文化工作先进理念、创新方法，充分用好对口援疆资源、援疆力量深入实施文化润疆工程。', '哈密市委常委、宣传部长吾尔叶提·吾守尔率哈密市宣传文化系统领导干部在河南省学习考察。', '考察团先后赴洛阳市、许昌市、郑州市深入了解河南省文旅文创融合发展、文化数字化建设、沉浸式文化新业态等创新做法。并先后前往河南省委宣传部、河南省文旅厅、河南日报报业集团、河南广播电视台交流座谈。河南省文联与哈密市文联、河南省社科院与哈密市社科联、河南省文旅厅与哈密市文体广旅局、河南日报报业集团与哈密市融媒体中心、河南广播电视台与哈密市融媒体中心分别签订对口援助合作协议。', '吾尔叶提·吾守尔表示，哈密将立足实际，充分借鉴河南省宣传文化工作先进经验，进一步拓展交流合作空间，广泛聚合“润”的资源，坚持不懈补短板、强弱项，以认同为目标，务实有效推进文化润疆工作。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>297</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>新疆省</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>哈密市</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>哈密市政协与洛阳理工学院举行座谈签约仪式新闻动态</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.hami.gov.cn/info/4454/335130.htm</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['3月6日，哈密市政协与洛阳理工学院举行座谈交流会，并签订“豫哈历史文化研究交流”“哈密市政协委员赴豫培训”合作协议，市政协党组副书记、主席王毅主持，洛阳理工学院党委书记陈岩出席并讲话。', '王毅对陈岩一行的到来表示欢迎，对洛阳理工学院一直以来对哈密市经济社会发展、对市政协各项工作的支持表示感谢。他说，洛阳理工学院深入贯彻落实习近平总书记关于对口援疆工作重要论述精神，与哈密市建立起了良好的合作关系，此次与市政协在文化研究交流、政协委员赴豫培训领域的合作是深化对口援疆工作的创新举措，也是推动哈密市党政代表团赴河南省学习考察成果转化的具体行动，希望双方在现有合作基础上，搭建更广阔的平台，探索推动更广领域、更深层次的合作。', '座谈会上，双方围绕豫哈历史文化研究交流、新发展理念培训服务等进行座谈，交流了双方在文旅文创产品开发、历史文化资源挖掘整理、“洛理村”建设方面取得了的成果，并探讨展望双方在其他领域的合作共赢的前景和合作空间。', '陈岩表示，洛阳理工学院将结合自身优势，积极推进校政合作，在加强文创、文旅、培训等领域合作的基础上进一步启发思路，围绕哈密市委二届四次全会的部署安排，围绕哈密市培育“六大主导产业”，在职业教育、产业升级、历史文化传承创新、乡村振兴等方面，探索合作空间，加大合作力度，助推哈密经济社会高质量发展。', '市政协副主席杨瑞芳，市政协办公室、文体广旅局、文史委办公室相关负责同志；洛阳理工学院党委副书记、工会主席曾涛，及相关院、处负责同志等参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>297</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>新疆省</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>哈密市</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>哈密市委常委会召开会议新闻动态</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.hami.gov.cn/info/4454/335072.htm</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['哈密市委常委会2月28日下午召开会议，学习贯彻习近平总书记在中央政治局常委会、 中央政治局第三次集体学习时的重要讲话精神、对内蒙古阿拉善左旗露天煤矿坍塌事故重要指示精神和近期回信贺信精神，学习贯彻自治区有关会议精神，审议相关工作方案和实施意见，研究部署我市相关工作。市委书记孙涛主持会议。', '会议指出，习近平总书记在中央政治局第三次集体学习时的重要讲话，就切实加强基础研究、夯实科技自立自强根基提出一系列重要论断，作出一系列重大部署，为新时代新征程推动基础研究实现高质量发展指明了前进方向、提供了根本遵循。我们要着眼未来科技发展变革趋势，深刻认识加强基础研究对支撑高水平的科技自立自强的重要性和紧迫性，把加强基础研究纳入到对经济社会高质量发展的整体谋划中去，切实提高工作的前瞻性、战略性、系统性。要主动融入国家科技战略布局，深入推进“科教兴哈”战略，聚力打造区域性创新高地、自主创新人才示范区。要突出创新驱动引领，坚持抓根本、打基础、利长远，做深做实能源资源开发转化利用等基础研究，让科技创新这个“关键变量”转化为推动哈密经济社会高质量发展的“最大增量”。', '会议强调，要深入学习领会习近平总书记《当前经济工作的几个重大问题》 重要文章精神，突出高质量发展这一时代主题，纲举目张做好全年经济工作。要以“拼经济”为工作主线，围绕建设新疆经济高质量发展的标杆，持续加强经济社会全局性的顶层设计和整体谋划，推动各项工作往深里走、往实里走;要把抓好一季度经济工作作为重中之重，以“开局即决战、起跑即冲刺”的精神状态，抓好企业复产达产、项目开工复工、营商环境优化、招商引资等工作，实现一季度“开门红”，为全面完成全年经济目标打好坚实基础;要把“项目为王”理念贯穿全年经济工作始终，落实各级领导干部包保、调度推进、全周期服务等机制，加强各级各部门项目投资工作专业能力建设，积极为企业纾难解困。', '会议强调，要认真学习贯彻习近平总书记对内蒙古阿拉善左旗露天煤矿坍塌事故的重要指示精神，始终坚持人民至上、生命至上，全力做好安全生产工作。要引以为戒、举一反三，紧盯煤矿、非煤矿山、危化品、交通运输等行业领域，从解决体制机制、力量能力建设等根本性、结构性问题入手，切实提高风险隐患排查、化解、整治的能力水平。要抓住自治区部署开展的为期半年的矿山安全领域帮扶指导的重大机遇，最大力度地借助用好专家力量，对辖区内矿山企业进行全覆盖的“体检诊断”，有针对性的拿出隐患治理措施，推广华为·疆纳智慧矿山建设的有效作法，加快智能化技术手段应用，全面提升矿山本质安全水平。', '会议强调，要深入学习贯彻2月16日中央政治局常委会会议精神，贯彻落实自治区部署要求，扎实做好新阶段疫情防控各项工作，坚决巩固来之不易的防疫成果。要提高政治站位，从3年多疫情防控工作取得的重大决定性胜利中，进一步深刻领悟“两个确立”的决定性意义，坚决做到“两个维护”。要增强时时放心不下的责任感，严格落实“四早”“乙类乙管”要求，常态长效开展疫情监测，加强基层基础能力建设，着力提升医疗服务水平。要梳理总结疫情防控工作中的有益经验做法，系统应用到公共卫生服务体系建设等工作中去，不断提升业务、队伍、能力建设水平。', '会议指出，自治区党政代表团赴甘肃省学习考察，为全疆在更高层面推动形成区域大合作、大联动、大发展的共建共享共赢新格局指明了方向、注入了动力。要进一步深化新疆在全国战略地位的认识，找准哈密区域站位，自觉从区域协同发展的高度谋划工作。要牢牢抓住新甘两省区深化交流合作的有利契机，深化合作层次、拓宽合作领域，全面推动哈密与甘肃各领域的交流合作。要发挥主体作用，立足新疆“东大门”优势，主动谋划作为，加强沟通协作，着力打造区域性发展高地、创新高地和治理高地。', '会议传达了自治区党委主要领导在《哈密市党政代表团赴河南省学习考察报告》上的批示精神，通报了哈密市党政代表团赴河南省学习考察情况。强调要学习借鉴河南省的超前理念、先进经验和创新做法，抓好学习考察成果转化，推动援疆工作由政府主导向全社会参与转变、由行政推动向市场驱动转变、由单向援助向合作共赢转变，把援疆工作打造成推动高质量发展的牵引性工程、民族团结的标志性工程、凝聚人心的示范性工程。', '会议听取了我市城市更新工作前期进展情况以及取得的工作成果的汇报，审议通过了《哈密市城市更新工作方案》，强调要坚持“人民城市人民建、人民城市为人民”的工作理念，立足当前、着眼长远，高起点高标准谋划推进城市更新工作。要坚持稳妥有序推进，按照“整体与局部、近期与远期、统筹与分工”相结合的原则系统谋划实施，同步做好舆论引导和公众参与工作，形成工作合力。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>297</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>新疆省</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>哈密市</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>阿勒泰地区来哈密宣传推介冬季旅游新闻动态</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-01-08</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.hami.gov.cn/info/4454/329302.htm</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['1月6日，阿勒泰地区冬季“疆人游阿”走进哈密、十三师新星市专场推介会在市博物馆举办。签约仪式现场。融媒体中心记者 邢亚丽摄', '阿勒泰和哈密两地人民热情好客，美景各具特色，自然资源互补优势明显。此次推介会在旅游资源共享、旅游市场联动、旅游信息互通、旅游客源互送、产业发展经验共享等方面开展多层次、宽领域、多样化合作，助推双方文旅产业融合深度发展。同时，双方将建立互访机制，每年开展学习、考察、交流活动，进一步加强沟通交流，构建共赢互惠的长期合作关系。', '推介会上，大家通过观看视频短片了解阿勒泰地区整体旅游资源情况，两地相关领导现场签署合作协议。', '可可托海景区管理委员会办公室副主任王丽芬说：“旅游推荐组专程到哈密举办旅游推介会，介绍阿勒泰地区的优质冰雪资源、冬季线路产品和优惠政策，让哈密人民在家门口就能体验到世界级的冰雪资源。希望以此为契机，搭建起阿勒泰与哈密两地的合作交流平台，加强两地跨地域合作，共同推进旅游产业发展。”', '据了解，冬季“疆人游阿”活动共出台21项优惠政策，其中，阿勒泰地区所有A级景区于2022年4月20日之前免费开放，同时还有包机奖励优惠、火车专列优惠政策，以及旅行社奖励政策。另外，阿泰地区可可托海国际滑雪度假区、将军山国际滑雪度假区、禾木吉克普林滑雪度假区三大滑雪场还为广大游客带来了27万张免费门票。']</t>
         </is>
